--- a/stock_list.xlsx
+++ b/stock_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\python project\.ipynb_checkpoints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRATHAM\Desktop\live stock project\live_Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB66D841-D1F4-43A3-AEB2-4B8D76C32ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8669DAE8-8F97-4175-A46A-6D7979E3769F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock_list" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>BRK.B</t>
   </si>
   <si>
-    <t>BCA</t>
-  </si>
-  <si>
     <t>Microsoft</t>
   </si>
   <si>
@@ -177,11 +174,14 @@
   <si>
     <t>Coca-Cola Company</t>
   </si>
+  <si>
+    <t>BAC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -1020,11 +1020,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1052,7 +1052,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="2"/>
@@ -1062,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="2"/>
@@ -1072,7 +1072,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5" s="2"/>
@@ -1082,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="2"/>
@@ -1092,7 +1092,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1"/>
       <c r="E7" s="2"/>
@@ -1102,7 +1102,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1"/>
       <c r="E8" s="2"/>
@@ -1112,7 +1112,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1"/>
       <c r="E9" s="2"/>
@@ -1122,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1"/>
       <c r="E10" s="2"/>
@@ -1132,7 +1132,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1"/>
       <c r="E11" s="2"/>
@@ -1142,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1"/>
       <c r="E12" s="2"/>
@@ -1152,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1"/>
       <c r="E13" s="2"/>
@@ -1162,7 +1162,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1"/>
       <c r="E14" s="2"/>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1"/>
       <c r="E15" s="2"/>
@@ -1182,7 +1182,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1"/>
       <c r="E16" s="2"/>
@@ -1192,7 +1192,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1"/>
       <c r="E17" s="2"/>
@@ -1202,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1"/>
       <c r="E18" s="2"/>
@@ -1212,7 +1212,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1"/>
       <c r="E19" s="2"/>
@@ -1222,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1"/>
       <c r="E20" s="2"/>
@@ -1232,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1"/>
       <c r="E21" s="2"/>
@@ -1242,7 +1242,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1"/>
       <c r="E22" s="2"/>
@@ -1252,7 +1252,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1"/>
       <c r="E23" s="2"/>
@@ -1262,17 +1262,17 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1"/>
       <c r="E25" s="2"/>
@@ -1282,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26" s="2"/>
